--- a/generated_docs/WR_89877351_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:49 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/13/2025 to 07/13/25</t>
+          <t>07/07/2025 to 07/13/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89877351_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_071325.xlsx
@@ -133,10 +133,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -144,6 +140,10 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:49 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>732.61</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,160 +765,194 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr"/>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H17" s="13" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="H18" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>Sunday (07/13/2025)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F21" s="8" t="inlineStr">
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G21" s="8" t="inlineStr">
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="9" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="B23" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D22" s="9" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E22" s="9" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="10" t="inlineStr"/>
-      <c r="H22" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B23" s="14" t="inlineStr">
-        <is>
-          <t>SAA-SP-336</t>
-        </is>
-      </c>
-      <c r="C23" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
-        </is>
-      </c>
-      <c r="E23" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15" t="inlineStr"/>
-      <c r="H23" s="16" t="n">
-        <v>55.18</v>
+      <c r="G23" s="10" t="inlineStr"/>
+      <c r="H23" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="inlineStr">
         <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D24" s="12" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E24" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13" t="inlineStr"/>
+      <c r="H24" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H24" s="13" t="n">
-        <v>533.73</v>
+      <c r="H25" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>

--- a/generated_docs/WR_89877351_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_071325.xlsx
@@ -133,6 +133,10 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -140,10 +144,6 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>732.61</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,194 +761,160 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="inlineStr">
-        <is>
-          <t>SVC-VA</t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>SVC-Virtual Asset Capitalization</t>
-        </is>
-      </c>
-      <c r="E17" s="12" t="inlineStr">
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (07/13/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F22" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="13" t="inlineStr"/>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H18" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (07/13/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G22" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G22" s="10" t="inlineStr"/>
+      <c r="H22" s="11" t="n">
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="inlineStr">
+      <c r="A23" s="14" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="inlineStr">
+      <c r="B23" s="14" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C23" s="14" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E23" s="14" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="10" t="inlineStr"/>
-      <c r="H23" s="11" t="n">
-        <v>0</v>
+      <c r="G23" s="15" t="inlineStr"/>
+      <c r="H23" s="16" t="n">
+        <v>55.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="inlineStr">
-        <is>
-          <t>SAA-SP-336</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D24" s="12" t="inlineStr">
-        <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
-        </is>
-      </c>
-      <c r="E24" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13" t="inlineStr"/>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="inlineStr">
-        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H25" s="16" t="n">
-        <v>0</v>
+      <c r="H24" s="13" t="n">
+        <v>533.73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
